--- a/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
+++ b/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex\Code\ea-journeys\project\src\ea_journeys\upstream\controllers\journeys\delivery_planning\tests_unit\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\journeys\delivery_planning\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6285F607-56B2-4A3F-B602-84908ED8E07D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34808A18-867B-413C-AC9C-81C94A3D1786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
+    <workbookView xWindow="7327" yWindow="3885" windowWidth="12578" windowHeight="11715" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>3.3.4</t>
   </si>
   <si>
-    <t>excelAPI</t>
-  </si>
-  <si>
     <t>data.kind.1</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>E7:J50</t>
   </si>
   <si>
-    <t>milestone.journeys.a6i.xlsx/v1</t>
-  </si>
-  <si>
     <t>Opus Health Pro</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>Healthcare Ecosystem - Open API</t>
+  </si>
+  <si>
+    <t>manifestAPI</t>
+  </si>
+  <si>
+    <t>milestone.journeys.a6i.io/v1</t>
   </si>
 </sst>
 </file>
@@ -822,28 +822,28 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.86328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.53125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69.53125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.86328125" style="2" customWidth="1"/>
     <col min="13" max="16" width="30.6640625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2"/>
+    <col min="17" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -852,15 +852,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>20</v>
@@ -869,36 +869,36 @@
         <v>21</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -921,12 +921,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="9"/>
@@ -934,12 +934,12 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="9"/>
@@ -947,12 +947,12 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>14</v>
@@ -970,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7" s="12"/>
       <c r="M7" s="10" t="s">
@@ -980,18 +980,18 @@
         <v>21</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>16</v>
@@ -1003,7 +1003,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="15"/>
@@ -1015,12 +1015,12 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
@@ -1028,7 +1028,7 @@
         <v>1.2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
@@ -1040,12 +1040,12 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
@@ -1069,7 +1069,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1094,12 +1094,12 @@
       </c>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>2.1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="15"/>
@@ -1148,12 +1148,12 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
@@ -1161,7 +1161,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="15"/>
@@ -1173,7 +1173,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="15"/>
@@ -1198,12 +1198,12 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
@@ -1227,7 +1227,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E18" s="8"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1265,7 +1265,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1322,7 +1322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E22" s="8"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1341,18 +1341,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G23" s="5">
         <v>3.1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="15"/>
@@ -1364,14 +1364,14 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E24" s="8"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
         <v>3.2</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="15"/>
@@ -1383,20 +1383,20 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E25" s="8"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
         <v>3.3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K25" s="13"/>
       <c r="M25" s="9" t="s">
@@ -1406,7 +1406,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1425,7 +1425,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E27" s="8"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E28" s="8"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>

--- a/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
+++ b/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\journeys\delivery_planning\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34808A18-867B-413C-AC9C-81C94A3D1786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F025C3A-C671-48D4-AA7A-383327FAC446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7327" yWindow="3885" windowWidth="12578" windowHeight="11715" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Modernization</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>milestone.journeys.a6i.io/v1</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -845,34 +845,34 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2"/>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="O2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="28.5" x14ac:dyDescent="0.45">
@@ -880,22 +880,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="O3" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
@@ -906,19 +906,19 @@
         <v>8</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="9"/>
@@ -936,10 +936,10 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="9"/>
@@ -949,67 +949,67 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="J7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="12"/>
       <c r="M7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="O7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="15"/>
       <c r="K8" s="13"/>
       <c r="M8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
@@ -1028,13 +1028,13 @@
         <v>1.2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
       <c r="K9" s="13"/>
       <c r="M9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
@@ -1053,44 +1053,44 @@
         <v>1.3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="13"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="13"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P11" s="9"/>
     </row>
@@ -1099,50 +1099,50 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="13"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5">
         <v>2.1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="15"/>
       <c r="K13" s="13"/>
       <c r="M13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1153,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
@@ -1161,13 +1161,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="15"/>
       <c r="K14" s="13"/>
       <c r="M14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1186,13 +1186,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="15"/>
       <c r="K15" s="13"/>
       <c r="M15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
@@ -1211,18 +1211,18 @@
         <v>2.4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="13"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -1233,16 +1233,16 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="13"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P17" s="9"/>
     </row>
@@ -1252,14 +1252,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="13"/>
       <c r="M18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -1271,16 +1271,16 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="13"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P19" s="9"/>
     </row>
@@ -1290,16 +1290,16 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" s="13"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P20" s="9"/>
     </row>
@@ -1309,17 +1309,17 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="13"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.45">
@@ -1328,37 +1328,37 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22" s="13"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.45">
       <c r="E23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="5">
         <v>3.1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="15"/>
       <c r="K23" s="13"/>
       <c r="M23" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -1371,13 +1371,13 @@
         <v>3.2</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="15"/>
       <c r="K24" s="13"/>
       <c r="M24" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -1390,17 +1390,17 @@
         <v>3.3</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="K25" s="13"/>
       <c r="M25" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -1412,15 +1412,15 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" s="13"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -1431,16 +1431,16 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="13"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P27" s="9"/>
     </row>
@@ -1450,17 +1450,17 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28" s="13"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1470,15 +1470,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FE2109BEF92BEF4C8E97B5AF946419EC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d28efe2c189899efa1786a30ea87be2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e212f830-3554-41ad-bc58-ca25e45c0c36" xmlns:ns3="ddeece39-a33c-49ad-a8fd-0ae9fa2c3195" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0977d188311524f24189f8889752715f" ns2:_="" ns3:_="">
     <xsd:import namespace="e212f830-3554-41ad-bc58-ca25e45c0c36"/>
@@ -1689,6 +1680,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1696,14 +1696,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F75AA3-BA7A-4A3B-B4CB-1B0EB08DC411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1722,6 +1714,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
   <ds:schemaRefs>

--- a/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
+++ b/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\journeys\delivery_planning\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F025C3A-C671-48D4-AA7A-383327FAC446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F140C739-058C-4BBD-AA24-B7EE59806EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -939,7 +939,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="9"/>
@@ -952,7 +952,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>13</v>
@@ -991,7 +991,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>15</v>
@@ -1020,7 +1020,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
@@ -1470,6 +1470,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FE2109BEF92BEF4C8E97B5AF946419EC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d28efe2c189899efa1786a30ea87be2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e212f830-3554-41ad-bc58-ca25e45c0c36" xmlns:ns3="ddeece39-a33c-49ad-a8fd-0ae9fa2c3195" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0977d188311524f24189f8889752715f" ns2:_="" ns3:_="">
     <xsd:import namespace="e212f830-3554-41ad-bc58-ca25e45c0c36"/>
@@ -1680,15 +1689,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1696,6 +1696,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F75AA3-BA7A-4A3B-B4CB-1B0EB08DC411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1714,14 +1722,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
   <ds:schemaRefs>

--- a/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
+++ b/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\journeys\delivery_planning\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F140C739-058C-4BBD-AA24-B7EE59806EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49436488-8B11-4B49-9086-E22BD66B6E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
@@ -308,10 +308,10 @@
     <t>manifestAPI</t>
   </si>
   <si>
-    <t>milestone.journeys.a6i.io/v1</t>
-  </si>
-  <si>
     <t>knowledgeBase</t>
+  </si>
+  <si>
+    <t>delivery-planning.journeys.a6i.io/v1</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -857,7 +857,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>59</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1470,15 +1470,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FE2109BEF92BEF4C8E97B5AF946419EC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d28efe2c189899efa1786a30ea87be2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e212f830-3554-41ad-bc58-ca25e45c0c36" xmlns:ns3="ddeece39-a33c-49ad-a8fd-0ae9fa2c3195" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0977d188311524f24189f8889752715f" ns2:_="" ns3:_="">
     <xsd:import namespace="e212f830-3554-41ad-bc58-ca25e45c0c36"/>
@@ -1689,6 +1680,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1696,14 +1696,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F75AA3-BA7A-4A3B-B4CB-1B0EB08DC411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1722,6 +1714,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
   <ds:schemaRefs>

--- a/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
+++ b/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\journeys\delivery_planning\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49436488-8B11-4B49-9086-E22BD66B6E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849BD853-1BB0-479B-A614-2E0CB78F191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
@@ -311,7 +311,7 @@
     <t>knowledgeBase</t>
   </si>
   <si>
-    <t>delivery-planning.journeys.a6i.io/v1</t>
+    <t>delivery-planning.journeys.a6i.io/v1a</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1470,6 +1470,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FE2109BEF92BEF4C8E97B5AF946419EC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d28efe2c189899efa1786a30ea87be2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e212f830-3554-41ad-bc58-ca25e45c0c36" xmlns:ns3="ddeece39-a33c-49ad-a8fd-0ae9fa2c3195" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0977d188311524f24189f8889752715f" ns2:_="" ns3:_="">
     <xsd:import namespace="e212f830-3554-41ad-bc58-ca25e45c0c36"/>
@@ -1680,15 +1689,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1696,6 +1696,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38F75AA3-BA7A-4A3B-B4CB-1B0EB08DC411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1714,14 +1722,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
   <ds:schemaRefs>

--- a/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
+++ b/src/apodeixi/controllers/journeys/delivery_planning/tests_unit/input_data/milestones_INPUT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\project\src\apodeixi\controllers\journeys\delivery_planning\tests_unit\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849BD853-1BB0-479B-A614-2E0CB78F191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A12EDAA-D923-4885-A674-94ACA36A14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>FY 22</t>
   </si>
   <si>
-    <t>L2:P30</t>
-  </si>
-  <si>
     <t>Modernization milestone</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Sub Breakdown</t>
   </si>
   <si>
-    <t>E7:J50</t>
-  </si>
-  <si>
     <t>Opus Health Pro</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>delivery-planning.journeys.a6i.io/v1a</t>
+  </si>
+  <si>
+    <t>E7:J28</t>
+  </si>
+  <si>
+    <t>L2:P28</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -854,10 +854,10 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>59</v>
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>28</v>
@@ -880,22 +880,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="9"/>
@@ -939,7 +939,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="9"/>
@@ -952,7 +952,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>13</v>
@@ -970,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="12"/>
       <c r="M7" s="10" t="s">
@@ -980,7 +980,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P7" s="10" t="s">
         <v>28</v>
@@ -991,7 +991,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>15</v>
@@ -1003,7 +1003,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="15"/>
@@ -1020,7 +1020,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
@@ -1028,7 +1028,7 @@
         <v>1.2</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="15"/>
@@ -1045,7 +1045,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1136,7 +1136,7 @@
         <v>2.1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="15"/>
@@ -1153,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
@@ -1161,7 +1161,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="15"/>
@@ -1186,7 +1186,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="15"/>
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="5">
         <v>3.1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="15"/>
@@ -1371,7 +1371,7 @@
         <v>3.2</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="15"/>
@@ -1390,13 +1390,13 @@
         <v>3.3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K25" s="13"/>
       <c r="M25" s="9" t="s">
